--- a/mentoring-core/mapping-districts.xlsx
+++ b/mentoring-core/mapping-districts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Province</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Pebane</t>
+  </si>
+  <si>
+    <t>Quelimane</t>
   </si>
 </sst>
 </file>
@@ -80,6 +83,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -98,15 +102,15 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,13 +155,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -181,10 +189,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -315,6 +323,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
